--- a/biology/Zoologie/Amphisbaena_hastata/Amphisbaena_hastata.xlsx
+++ b/biology/Zoologie/Amphisbaena_hastata/Amphisbaena_hastata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amphisbaena hastata est une espèce d'amphisbènes de la famille des Amphisbaenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphisbaena hastata est une espèce d'amphisbènes de la famille des Amphisbaenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'État de Bahia au Brésil[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'État de Bahia au Brésil. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Vanzolini, 1991 : Two new small species of Amphisbaena from the fossil dune field of the middle Rio São Francisco, State of Bahia, Brasil (Reptilia, Amphisbaenia). Papéis Avulsos de Zoologia, São Paulo, vol. 37, no 17, p. 259-276.</t>
         </is>
